--- a/missions.xlsx
+++ b/missions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30695\Desktop\παιχνίδια\Solar System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF49DF0-446D-480B-983E-D298F032F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E43D15-A86F-431C-8BD7-F207DEE8C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3191" yWindow="1359" windowWidth="16589" windowHeight="8502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="78">
   <si>
     <t>planet</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Venera 16</t>
   </si>
   <si>
-    <t>Veha 1</t>
-  </si>
-  <si>
     <t>Vega 1</t>
   </si>
   <si>
@@ -252,6 +249,24 @@
   </si>
   <si>
     <t>sd for n=4</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>CNSA</t>
+  </si>
+  <si>
+    <t>MBRSC</t>
+  </si>
+  <si>
+    <t>Roscosmos</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>JAXA</t>
   </si>
 </sst>
 </file>
@@ -637,46 +652,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="9" max="9" width="16.69921875" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -700,13 +715,16 @@
         <v>-9.7599904710757954</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -729,16 +747,19 @@
       <c r="H3">
         <v>-9.7692312442950886</v>
       </c>
-      <c r="I3">
-        <f>10*I4</f>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3">
+        <f>10*J4</f>
         <v>5.7754832620579202E-3</v>
       </c>
-      <c r="J3">
-        <f>365*I4</f>
+      <c r="K3">
+        <f>365*J4</f>
         <v>0.21080513906511408</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -761,11 +782,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4">
         <v>5.7754832620579197E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -788,8 +812,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -812,8 +839,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -836,8 +866,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -860,8 +893,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -884,8 +920,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -908,8 +947,11 @@
       <c r="H10">
         <v>-2.5406363935033949</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -934,8 +976,11 @@
       <c r="H11">
         <v>0.44644485615707719</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -958,8 +1003,11 @@
       <c r="H12">
         <v>-0.71038574775724006</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -984,8 +1032,11 @@
       <c r="H13">
         <v>1.501048099808854</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1059,11 @@
       <c r="H14">
         <v>-5.6998257378490784</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1034,8 +1088,11 @@
       <c r="H15">
         <v>-5.5398435449659571</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1115,11 @@
       <c r="H16">
         <v>-4.325838269805498</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1144,11 @@
       <c r="H17">
         <v>-2.9068007257937509</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1171,11 @@
       <c r="H18">
         <v>-4.3102444649979423</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1134,8 +1200,11 @@
       <c r="H19">
         <v>-1.1730006505239641</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1227,11 @@
       <c r="H20">
         <v>-0.7144285860406806</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1184,8 +1256,11 @@
       <c r="H21">
         <v>-0.3413310607876231</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1284,7 @@
         <v>-5.5178980150942536</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1256,8 +1331,11 @@
       <c r="H24">
         <v>-7.20376157928896</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1280,8 +1358,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1304,8 +1385,11 @@
       <c r="H26">
         <v>-10.922017703401851</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1328,8 +1412,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1352,8 +1439,11 @@
       <c r="H28">
         <v>-10.69157592124574</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1376,8 +1466,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1400,8 +1493,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1424,8 +1520,11 @@
       <c r="H31">
         <v>-3.7748571666051731</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1448,8 +1547,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1472,8 +1574,11 @@
       <c r="H33">
         <v>-2.60589935436465</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1496,8 +1601,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1520,8 +1628,11 @@
       <c r="H35">
         <v>-0.1397680014659175</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1544,8 +1655,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1568,8 +1682,11 @@
       <c r="H37">
         <v>-12.92957568529318</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1592,8 +1709,11 @@
       <c r="H38">
         <v>-12.86662291773675</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1616,8 +1736,11 @@
       <c r="H39">
         <v>-11.918866114433049</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1763,11 @@
       <c r="H40">
         <v>-11.844939928678709</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1664,8 +1790,11 @@
       <c r="H41">
         <v>-11.917711017780629</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1688,8 +1817,11 @@
       <c r="H42">
         <v>-11.8443623803525</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1712,8 +1844,11 @@
       <c r="H43">
         <v>-11.58793092351713</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1736,8 +1871,11 @@
       <c r="H44">
         <v>-11.512272092784171</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1760,8 +1898,11 @@
       <c r="H45">
         <v>-11.5850431818861</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1784,8 +1925,11 @@
       <c r="H46">
         <v>-11.51169454445796</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -1808,8 +1952,11 @@
       <c r="H47">
         <v>-11.24775495938192</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1832,8 +1979,11 @@
       <c r="H48">
         <v>-11.17844916023722</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1856,8 +2006,11 @@
       <c r="H49">
         <v>-10.908156543572909</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1880,8 +2033,11 @@
       <c r="H50">
         <v>-10.85790983919301</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1904,8 +2060,11 @@
       <c r="H51">
         <v>-10.23358009856454</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2087,11 @@
       <c r="H52">
         <v>-10.156188622852969</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1952,8 +2114,11 @@
       <c r="H53">
         <v>-10.56971322441632</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1976,8 +2141,11 @@
       <c r="H54">
         <v>-10.515423681752971</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2002,8 +2170,11 @@
       <c r="H55">
         <v>-10.29364381796583</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -2026,8 +2197,11 @@
       <c r="H56">
         <v>-10.230114808607309</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -2050,8 +2224,11 @@
       <c r="H57">
         <v>-10.15330088122194</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -2074,8 +2251,11 @@
       <c r="H58">
         <v>-9.5468751387058592</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -2098,8 +2278,11 @@
       <c r="H59">
         <v>-9.4850774678018386</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -2122,8 +2305,11 @@
       <c r="H60">
         <v>-9.5439873970748295</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -2146,8 +2332,11 @@
       <c r="H61">
         <v>-9.4873876611066628</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2170,8 +2359,11 @@
       <c r="H62">
         <v>-9.6115605512409079</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2196,8 +2388,11 @@
       <c r="H63">
         <v>-6.5800080804625889</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2220,8 +2415,11 @@
       <c r="H64">
         <v>-9.5653566851444438</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -2244,8 +2442,11 @@
       <c r="H65">
         <v>-9.4943182410211318</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2268,8 +2469,11 @@
       <c r="H66">
         <v>-8.8844272085478142</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2496,11 @@
       <c r="H67">
         <v>-8.8139663127507077</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2316,8 +2523,11 @@
       <c r="H68">
         <v>-8.8815394669167862</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2340,8 +2550,11 @@
       <c r="H69">
         <v>-8.8116561194458853</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -2364,8 +2577,11 @@
       <c r="H70">
         <v>-8.5494491793484553</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -2390,8 +2606,11 @@
       <c r="H71">
         <v>-8.3247815739302862</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -2414,8 +2633,11 @@
       <c r="H72">
         <v>-8.5465614377174273</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -2440,8 +2662,11 @@
       <c r="H73">
         <v>-8.3247815739302862</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -2465,9 +2690,9 @@
         <v>-8.2248670200208007</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2489,9 +2714,9 @@
         <v>-8.1220634179561699</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -2513,9 +2738,9 @@
         <v>-8.2214017300635653</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2537,9 +2762,9 @@
         <v>-8.1197532246513457</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -2560,10 +2785,13 @@
       <c r="H78">
         <v>-7.3002121497653274</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2586,10 +2814,13 @@
       <c r="H79">
         <v>-6.1635957372682126</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2610,10 +2841,13 @@
       <c r="H80">
         <v>-3.8158630977657841</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2636,10 +2870,13 @@
       <c r="H81">
         <v>-1.918037991329435</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2660,10 +2897,13 @@
       <c r="H82">
         <v>-2.8611757145476102</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2684,10 +2924,13 @@
       <c r="H83">
         <v>-2.7456660493064509</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2708,10 +2951,13 @@
       <c r="H84">
         <v>-1.690485257328469</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2732,10 +2978,13 @@
       <c r="H85">
         <v>-12.45367586449961</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -2756,10 +3005,13 @@
       <c r="H86">
         <v>-12.321417297798479</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2780,10 +3032,13 @@
       <c r="H87">
         <v>-11.55847595888063</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2806,10 +3061,13 @@
       <c r="H88">
         <v>-11.185378433627569</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -2830,10 +3088,13 @@
       <c r="H89">
         <v>-11.54114950909446</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2856,10 +3117,13 @@
       <c r="H90">
         <v>-11.18249069199654</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2880,10 +3144,13 @@
       <c r="H91">
         <v>-11.088929169675319</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2906,10 +3173,13 @@
       <c r="H92">
         <v>-10.83422905129445</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2930,10 +3200,13 @@
       <c r="H93">
         <v>-11.083731234739471</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2954,10 +3227,13 @@
       <c r="H94">
         <v>-10.97515214941278</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -2977,10 +3253,13 @@
       <c r="H95">
         <v>-11.08257613808706</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -3003,10 +3282,13 @@
       <c r="H96">
         <v>-10.79611086176487</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -3026,10 +3308,13 @@
       <c r="H97">
         <v>-10.630355798667919</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -3049,10 +3334,13 @@
       <c r="H98">
         <v>-10.512535940121939</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -3072,10 +3360,13 @@
       <c r="H99">
         <v>-10.6280456053631</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -3095,10 +3386,13 @@
       <c r="H100">
         <v>-10.50214007025024</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -3118,10 +3412,13 @@
       <c r="H101">
         <v>-10.62169257377484</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -3141,10 +3438,13 @@
       <c r="H102">
         <v>-10.459979042437221</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -3164,10 +3464,13 @@
       <c r="H103">
         <v>-10.619382380470009</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -3187,10 +3490,13 @@
       <c r="H104">
         <v>-10.46171168741583</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -3210,10 +3516,13 @@
       <c r="H105">
         <v>-10.19141907075152</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -3236,10 +3545,13 @@
       <c r="H106">
         <v>-8.6782411495682314</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -3259,10 +3571,13 @@
       <c r="H107">
         <v>-10.17986810422741</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -3285,10 +3600,13 @@
       <c r="H108">
         <v>-9.222869221180293</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -3308,10 +3626,13 @@
       <c r="H109">
         <v>-5.7506499905551873</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -3334,10 +3655,13 @@
       <c r="H110">
         <v>-3.62065045698411</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -3357,10 +3681,13 @@
       <c r="H111">
         <v>-4.7844116408128974</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -3383,10 +3710,13 @@
       <c r="H112">
         <v>0.35172693065932742</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -3406,10 +3736,13 @@
       <c r="H113">
         <v>-4.3304586564151446</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -3432,10 +3765,13 @@
       <c r="H114">
         <v>2.3205891746948719</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -3455,10 +3791,13 @@
       <c r="H115">
         <v>-3.8672648987981</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -3481,10 +3820,13 @@
       <c r="H116">
         <v>0.21138268739131991</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -3504,10 +3846,13 @@
       <c r="H117">
         <v>-3.4502750072775181</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -3530,10 +3875,13 @@
       <c r="H118">
         <v>-3.198462630527676</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -3553,10 +3901,13 @@
       <c r="H119">
         <v>-2.1305770818972829</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -3579,10 +3930,13 @@
       <c r="H120">
         <v>-0.23101933048231679</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -3602,10 +3956,13 @@
       <c r="H121">
         <v>-2.123068953656607</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -3628,10 +3985,13 @@
       <c r="H122">
         <v>0.21138268739131991</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -3652,9 +4012,9 @@
         <v>-1.598655073461748</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -3678,9 +4038,9 @@
         <v>0.21138268739131991</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -3700,10 +4060,13 @@
       <c r="H125">
         <v>-1.1822427302673719</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -3726,10 +4089,13 @@
       <c r="H126">
         <v>-0.22639894387267051</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -3749,10 +4115,13 @@
       <c r="H127">
         <v>-0.71673877934550378</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -3775,10 +4144,13 @@
       <c r="H128">
         <v>0.21138268739131991</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3798,10 +4170,13 @@
       <c r="H129">
         <v>-4.0832679727990664</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3821,10 +4196,13 @@
       <c r="H130">
         <v>-3.355557081779768</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3844,10 +4222,13 @@
       <c r="H131">
         <v>-3.1973088403993808</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3867,10 +4248,13 @@
       <c r="H132">
         <v>-3.0038301511204399</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3893,10 +4277,13 @@
       <c r="H133">
         <v>-1.8296730974199491</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3917,9 +4304,9 @@
         <v>-1.0852146114647989</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B135">
         <v>0</v>
